--- a/people_reports/COM_1604.xlsx
+++ b/people_reports/COM_1604.xlsx
@@ -480,8 +480,16 @@
           <t>Jennifer Nall</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Headshots/N/Nall_Jennifer_COM_Staff_2022_002</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nall-jennifer-0000</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -545,7 +553,11 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>solomon-amy-0000</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
